--- a/natmiOut/OldD0/LR-pairs_lrc2p/Alcam-Chl1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Alcam-Chl1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
   </si>
   <si>
     <t>sCs</t>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,123 +519,557 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.54665982679322</v>
+        <v>42.078429</v>
       </c>
       <c r="H2">
-        <v>3.54665982679322</v>
+        <v>126.235287</v>
       </c>
       <c r="I2">
-        <v>0.8952598949936209</v>
+        <v>0.9777085588730982</v>
       </c>
       <c r="J2">
-        <v>0.8952598949936209</v>
+        <v>0.9777085588730982</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>4.88684695042486</v>
+        <v>0.07850066666666666</v>
       </c>
       <c r="N2">
-        <v>4.88684695042486</v>
+        <v>0.235502</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.01562049898812527</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.01562049898812527</v>
       </c>
       <c r="Q2">
-        <v>17.33198375875881</v>
+        <v>3.303184728786</v>
       </c>
       <c r="R2">
-        <v>17.33198375875881</v>
+        <v>29.728662559074</v>
       </c>
       <c r="S2">
-        <v>0.8952598949936209</v>
+        <v>0.01527229555455865</v>
       </c>
       <c r="T2">
-        <v>0.8952598949936209</v>
+        <v>0.01527229555455865</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.414938192537794</v>
+        <v>42.078429</v>
       </c>
       <c r="H3">
-        <v>0.414938192537794</v>
+        <v>126.235287</v>
       </c>
       <c r="I3">
-        <v>0.1047401050063791</v>
+        <v>0.9777085588730982</v>
       </c>
       <c r="J3">
-        <v>0.1047401050063791</v>
+        <v>0.9777085588730982</v>
       </c>
       <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M3">
+        <v>0.051033</v>
+      </c>
+      <c r="N3">
+        <v>0.153099</v>
+      </c>
+      <c r="O3">
+        <v>0.010154829999673</v>
+      </c>
+      <c r="P3">
+        <v>0.010154829999673</v>
+      </c>
+      <c r="Q3">
+        <v>2.147388467157</v>
+      </c>
+      <c r="R3">
+        <v>19.326496204413</v>
+      </c>
+      <c r="S3">
+        <v>0.009928464204581593</v>
+      </c>
+      <c r="T3">
+        <v>0.009928464204581594</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="L3">
+      <c r="G4">
+        <v>42.078429</v>
+      </c>
+      <c r="H4">
+        <v>126.235287</v>
+      </c>
+      <c r="I4">
+        <v>0.9777085588730982</v>
+      </c>
+      <c r="J4">
+        <v>0.9777085588730982</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
         <v>1</v>
       </c>
-      <c r="M3">
-        <v>4.88684695042486</v>
-      </c>
-      <c r="N3">
-        <v>4.88684695042486</v>
-      </c>
-      <c r="O3">
+      <c r="M4">
+        <v>4.895956666666667</v>
+      </c>
+      <c r="N4">
+        <v>14.68787</v>
+      </c>
+      <c r="O4">
+        <v>0.9742246710122017</v>
+      </c>
+      <c r="P4">
+        <v>0.9742246710122018</v>
+      </c>
+      <c r="Q4">
+        <v>206.01416498541</v>
+      </c>
+      <c r="R4">
+        <v>1854.12748486869</v>
+      </c>
+      <c r="S4">
+        <v>0.9525077991139579</v>
+      </c>
+      <c r="T4">
+        <v>0.952507799113958</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.4771596666666666</v>
+      </c>
+      <c r="H5">
+        <v>1.431479</v>
+      </c>
+      <c r="I5">
+        <v>0.01108698925164327</v>
+      </c>
+      <c r="J5">
+        <v>0.01108698925164327</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.07850066666666666</v>
+      </c>
+      <c r="N5">
+        <v>0.235502</v>
+      </c>
+      <c r="O5">
+        <v>0.01562049898812527</v>
+      </c>
+      <c r="P5">
+        <v>0.01562049898812527</v>
+      </c>
+      <c r="Q5">
+        <v>0.03745735193977778</v>
+      </c>
+      <c r="R5">
+        <v>0.337116167458</v>
+      </c>
+      <c r="S5">
+        <v>0.0001731843043866494</v>
+      </c>
+      <c r="T5">
+        <v>0.0001731843043866495</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.4771596666666666</v>
+      </c>
+      <c r="H6">
+        <v>1.431479</v>
+      </c>
+      <c r="I6">
+        <v>0.01108698925164327</v>
+      </c>
+      <c r="J6">
+        <v>0.01108698925164327</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.051033</v>
+      </c>
+      <c r="N6">
+        <v>0.153099</v>
+      </c>
+      <c r="O6">
+        <v>0.010154829999673</v>
+      </c>
+      <c r="P6">
+        <v>0.010154829999673</v>
+      </c>
+      <c r="Q6">
+        <v>0.024350889269</v>
+      </c>
+      <c r="R6">
+        <v>0.219158003421</v>
+      </c>
+      <c r="S6">
+        <v>0.0001125864910586392</v>
+      </c>
+      <c r="T6">
+        <v>0.0001125864910586392</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.4771596666666666</v>
+      </c>
+      <c r="H7">
+        <v>1.431479</v>
+      </c>
+      <c r="I7">
+        <v>0.01108698925164327</v>
+      </c>
+      <c r="J7">
+        <v>0.01108698925164327</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
         <v>1</v>
       </c>
-      <c r="P3">
+      <c r="M7">
+        <v>4.895956666666667</v>
+      </c>
+      <c r="N7">
+        <v>14.68787</v>
+      </c>
+      <c r="O7">
+        <v>0.9742246710122017</v>
+      </c>
+      <c r="P7">
+        <v>0.9742246710122018</v>
+      </c>
+      <c r="Q7">
+        <v>2.336153051081111</v>
+      </c>
+      <c r="R7">
+        <v>21.02537745973</v>
+      </c>
+      <c r="S7">
+        <v>0.01080121845619798</v>
+      </c>
+      <c r="T7">
+        <v>0.01080121845619798</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
         <v>1</v>
       </c>
-      <c r="Q3">
-        <v>2.027739440818122</v>
-      </c>
-      <c r="R3">
-        <v>2.027739440818122</v>
-      </c>
-      <c r="S3">
-        <v>0.1047401050063791</v>
-      </c>
-      <c r="T3">
-        <v>0.1047401050063791</v>
+      <c r="G8">
+        <v>0.482215</v>
+      </c>
+      <c r="H8">
+        <v>1.446645</v>
+      </c>
+      <c r="I8">
+        <v>0.01120445187525872</v>
+      </c>
+      <c r="J8">
+        <v>0.01120445187525872</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.07850066666666666</v>
+      </c>
+      <c r="N8">
+        <v>0.235502</v>
+      </c>
+      <c r="O8">
+        <v>0.01562049898812527</v>
+      </c>
+      <c r="P8">
+        <v>0.01562049898812527</v>
+      </c>
+      <c r="Q8">
+        <v>0.03785419897666666</v>
+      </c>
+      <c r="R8">
+        <v>0.34068779079</v>
+      </c>
+      <c r="S8">
+        <v>0.0001750191291799772</v>
+      </c>
+      <c r="T8">
+        <v>0.0001750191291799772</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.482215</v>
+      </c>
+      <c r="H9">
+        <v>1.446645</v>
+      </c>
+      <c r="I9">
+        <v>0.01120445187525872</v>
+      </c>
+      <c r="J9">
+        <v>0.01120445187525872</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.051033</v>
+      </c>
+      <c r="N9">
+        <v>0.153099</v>
+      </c>
+      <c r="O9">
+        <v>0.010154829999673</v>
+      </c>
+      <c r="P9">
+        <v>0.010154829999673</v>
+      </c>
+      <c r="Q9">
+        <v>0.024608878095</v>
+      </c>
+      <c r="R9">
+        <v>0.221479902855</v>
+      </c>
+      <c r="S9">
+        <v>0.0001137793040327697</v>
+      </c>
+      <c r="T9">
+        <v>0.0001137793040327697</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.482215</v>
+      </c>
+      <c r="H10">
+        <v>1.446645</v>
+      </c>
+      <c r="I10">
+        <v>0.01120445187525872</v>
+      </c>
+      <c r="J10">
+        <v>0.01120445187525872</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>4.895956666666667</v>
+      </c>
+      <c r="N10">
+        <v>14.68787</v>
+      </c>
+      <c r="O10">
+        <v>0.9742246710122017</v>
+      </c>
+      <c r="P10">
+        <v>0.9742246710122018</v>
+      </c>
+      <c r="Q10">
+        <v>2.360903744016667</v>
+      </c>
+      <c r="R10">
+        <v>21.24813369615</v>
+      </c>
+      <c r="S10">
+        <v>0.01091565344204598</v>
+      </c>
+      <c r="T10">
+        <v>0.01091565344204598</v>
       </c>
     </row>
   </sheetData>
